--- a/datasety/prijmacky.xlsx
+++ b/datasety/prijmacky.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianvyskoc/Desktop/datasety/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianvyskoc/Desktop/bakalarka/datasety/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6F93E-08F1-1A46-B2A9-2066E9D0FE9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA60B7-DEC3-4942-BD08-1F73090194C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23040" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="179">
   <si>
     <t>Por.</t>
   </si>
@@ -536,6 +536,27 @@
   </si>
   <si>
     <t>0568/409</t>
+  </si>
+  <si>
+    <t>nieco</t>
+  </si>
+  <si>
+    <t>ds1</t>
+  </si>
+  <si>
+    <t>DSD</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -953,17 +974,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978A1FAD-73A3-44F4-AA51-158B660E079A}">
   <dimension ref="A1:DE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="66.6640625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="23.5" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="32.83203125" bestFit="1" customWidth="1"/>
@@ -972,6 +1000,8 @@
     <col min="96" max="96" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="98" max="99" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.2">
@@ -1313,10 +1343,18 @@
       <c r="C2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>124</v>
       </c>
@@ -1504,8 +1542,12 @@
       <c r="CB2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
+      <c r="CC2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="CE2" s="3"/>
       <c r="CF2" s="3" t="s">
         <v>96</v>
@@ -1515,12 +1557,24 @@
       </c>
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="3"/>
+      <c r="CJ2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="CP2" s="3" t="s">
         <v>147</v>
       </c>
@@ -1552,13 +1606,21 @@
         <v>149</v>
       </c>
       <c r="CZ2" s="3"/>
-      <c r="DA2" s="3"/>
-      <c r="DB2" s="3"/>
+      <c r="DA2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="DC2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
+      <c r="DD2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="3" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
